--- a/survey/data/Survey Analysis.xlsx
+++ b/survey/data/Survey Analysis.xlsx
@@ -12,94 +12,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D29">
-      <text>
-        <t xml:space="preserve">Agree: REUSE
-	-Wenxin Jiang</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D24">
-      <text>
-        <t xml:space="preserve">Agree: Should be CONFIG and REUSE
-	-James Davis
-----
-Agree to change to CONFIG, REUSE
-	-Wenxin Jiang</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D22">
-      <text>
-        <t xml:space="preserve">Unclear
-	-Wenxin Jiang</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C5">
-      <text>
-        <t xml:space="preserve">Agree to change to MORE-VARIATION
-	-Wenxin Jiang
-----
-Agree: Should be MORE-VARIATION
-	-James Davis</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3">
-      <text>
-        <t xml:space="preserve">Agree: Remove MORE-VARIATION
-	-James Davis</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="M48">
-      <text>
-        <t xml:space="preserve">Discuss: Maybe COMMS?
-	-James Davis</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M29">
-      <text>
-        <t xml:space="preserve">Agree: Should be REUSE
-	-James Davis</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M26">
-      <text>
-        <t xml:space="preserve">Agree: Should add FORK
-	-James Davis</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M4">
-      <text>
-        <t xml:space="preserve">Agree: Add FORK
-	-James Davis</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L4">
-      <text>
-        <t xml:space="preserve">Agree to add: SEM-KNOW
-	-James Davis</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="355">
   <si>
     <t>Answer</t>
   </si>
@@ -408,22 +322,6 @@
   </si>
   <si>
     <t>"How is PTM naming similar/different from naming traditional software packages asuch as those on NPM or PyPI? Why do you think that is?"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Codes: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://docs.google.com/document/d/1iPC5UyCqmeKQtBER0bI2r0rZzaf2-jdA/edit?pli=1</t>
-    </r>
   </si>
   <si>
     <t>SKIPPED BECAUSE SO RARE</t>
@@ -1013,22 +911,6 @@
     <t>PTM packages evolve so fast and the useful elements are changing</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Codes: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://docs.google.com/document/d/1iPC5UyCqmeKQtBER0bI2r0rZzaf2-jdA/edit?pli=1</t>
-    </r>
-  </si>
-  <si>
     <t>HOW-Agreed answer</t>
   </si>
   <si>
@@ -1403,7 +1285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1430,11 +1312,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1532,7 +1409,7 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1567,7 +1444,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1576,7 +1453,7 @@
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2578,16 +2455,14 @@
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="B1" s="5"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2598,25 +2473,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>1</v>
@@ -2624,386 +2499,386 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="2">
         <v>1.0</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H4" s="2">
         <v>1.0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="H5" s="2">
         <v>1.0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H6" s="2">
         <v>1.0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="2">
         <v>1.0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="2">
         <v>1.0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="H9" s="2">
         <v>1.0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="2">
         <v>1.0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="2">
         <v>1.0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H12" s="2">
         <v>1.0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H13" s="2">
         <v>1.0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H14" s="2">
         <v>1.0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H15" s="2">
         <v>1.0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H16" s="2">
         <v>1.0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" s="2">
         <v>1.0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H18" s="2">
         <v>1.0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="H19" s="2">
         <v>1.0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="2">
         <v>1.0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="H21" s="2">
         <v>1.0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="2">
         <v>1.0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>55</v>
@@ -3012,128 +2887,128 @@
         <v>1.0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="2">
         <v>1.0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="2">
         <v>1.0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" s="2">
         <v>1.0</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="2">
         <v>1.0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="J27" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="H28" s="2">
         <v>1.0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" s="2">
         <v>1.0</v>
@@ -3142,93 +3017,93 @@
         <v>1.0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <v>1.0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="2">
         <v>1.0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="H32" s="2">
         <v>1.0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="2">
         <v>1.0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>55</v>
@@ -3239,24 +3114,24 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" s="2">
         <v>1.0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>55</v>
@@ -3267,127 +3142,127 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H37" s="2">
         <v>1.0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H38" s="2">
         <v>1.0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H40" s="2">
         <v>1.0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41" s="2">
         <v>1.0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H42" s="2">
         <v>1.0</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -3397,24 +3272,24 @@
         <v>1.0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -3424,181 +3299,181 @@
         <v>1.0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="H45" s="2">
         <v>1.0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="2">
         <v>1.0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="2">
         <v>1.0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H48" s="2">
         <v>1.0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H49" s="2">
         <v>1.0</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H50" s="2">
         <v>1.0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H51" s="2">
         <v>1.0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H52" s="2">
         <v>1.0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
@@ -3608,27 +3483,27 @@
         <v>1.0</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H54" s="2">
         <v>1.0</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
@@ -7424,11 +7299,7 @@
       <c r="B1000" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="B1"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7462,9 +7333,7 @@
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>247</v>
-      </c>
+      <c r="B1" s="5"/>
       <c r="E1" s="12"/>
       <c r="H1" s="13"/>
       <c r="I1" s="12"/>
@@ -7474,61 +7343,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E2" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C3</f>
@@ -7536,40 +7405,40 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K3" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D3</f>
         <v>FORK, README</v>
       </c>
       <c r="L3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="Q3" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!C4</f>
@@ -7577,40 +7446,40 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D4</f>
         <v>FORK, OTHERS</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" s="2">
         <v>1.0</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C5</f>
@@ -7618,40 +7487,40 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K5" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D5</f>
         <v>NO-STD, OTHERS</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C6</f>
@@ -7659,40 +7528,40 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K6" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D6</f>
         <v>REUSE</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C7</f>
@@ -7700,34 +7569,34 @@
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K7" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D7</f>
         <v/>
       </c>
       <c r="L7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D8" s="2">
         <v>1.0</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C8</f>
@@ -7735,49 +7604,49 @@
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K8" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D8</f>
         <v/>
       </c>
       <c r="L8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" s="2">
         <v>1.0</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C9</f>
@@ -7785,20 +7654,20 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D9</f>
         <v>VERSION</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R9" s="16">
         <v>26.0</v>
@@ -7822,19 +7691,19 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C10</f>
@@ -7842,20 +7711,20 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K10" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D10</f>
         <v/>
       </c>
       <c r="L10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R10" s="16">
         <v>21.0</v>
@@ -7879,19 +7748,19 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2">
         <v>1.0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>'Compare to trad. SW (researcher'!C11</f>
@@ -7899,37 +7768,37 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K11" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D11</f>
         <v>NO-STD, README</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" s="2">
         <v>1.0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G12" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C12</f>
@@ -7937,23 +7806,23 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D12</f>
         <v>FORK, NO-STD</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R12" s="25">
         <f>(SUM(R9,U9))/W9</f>
@@ -7962,19 +7831,19 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" s="2">
         <v>1.0</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G13" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C13</f>
@@ -7982,23 +7851,23 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K13" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D13</f>
         <v>FORK, VERSION, NO-STD, REUSE</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R13" s="25">
         <f>SUM(R10,U10)/W10</f>
@@ -8007,19 +7876,19 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D14" s="2">
         <v>1.0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C14</f>
@@ -8027,37 +7896,37 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D14</f>
         <v>README</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D15" s="2">
         <v>1.0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C15</f>
@@ -8065,34 +7934,34 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K15" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D15</f>
         <v>FORK, REUSE</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D16" s="2">
         <v>1.0</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C16</f>
@@ -8100,34 +7969,34 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K16" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D16</f>
         <v>FORK</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D17" s="2">
         <v>1.0</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G17" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C17</f>
@@ -8135,31 +8004,31 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K17" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D17</f>
         <v>FORK</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D18" s="2">
         <v>1.0</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G18" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C18</f>
@@ -8167,7 +8036,7 @@
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K18" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D18</f>
@@ -8176,19 +8045,19 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D19" s="2">
         <v>1.0</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C19</f>
@@ -8196,37 +8065,37 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D19</f>
         <v>REUSE</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D20" s="2">
         <v>1.0</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G20" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C20</f>
@@ -8234,7 +8103,7 @@
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K20" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D20</f>
@@ -8243,19 +8112,19 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D21" s="2">
         <v>1.0</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C21</f>
@@ -8263,34 +8132,34 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K21" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D21</f>
         <v>COMMS</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D22" s="2">
         <v>1.0</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C22</f>
@@ -8298,31 +8167,31 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K22" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D22</f>
         <v/>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G23" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C23</f>
@@ -8330,7 +8199,7 @@
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K23" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D23</f>
@@ -8339,19 +8208,19 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D24" s="2">
         <v>1.0</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C24</f>
@@ -8359,37 +8228,37 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K24" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D24</f>
         <v>REUSE</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D25" s="2">
         <v>1.0</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C25</f>
@@ -8397,37 +8266,37 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K25" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D25</f>
         <v/>
       </c>
       <c r="L25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D26" s="2">
         <v>1.0</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C26</f>
@@ -8435,34 +8304,34 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D26</f>
         <v>FORK, REUSE</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G27" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C27</f>
@@ -8470,7 +8339,7 @@
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K27" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D27</f>
@@ -8479,19 +8348,19 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D28" s="2">
         <v>1.0</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C28</f>
@@ -8499,28 +8368,28 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K28" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D28</f>
         <v>README, COMMS</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -8529,10 +8398,10 @@
         <v>1.0</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C29</f>
@@ -8540,34 +8409,34 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K29" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D29</f>
         <v>REUSE</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G30" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C30</f>
@@ -8575,7 +8444,7 @@
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K30" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D30</f>
@@ -8584,19 +8453,19 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D31" s="2">
         <v>1.0</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C31</f>
@@ -8604,34 +8473,34 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D31</f>
         <v>FORK, REUSE</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D32" s="2">
         <v>1.0</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G32" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C32</f>
@@ -8639,34 +8508,34 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K32" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D32</f>
         <v>OTHERS</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D33" s="2">
         <v>1.0</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C33</f>
@@ -8674,31 +8543,31 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K33" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D33</f>
         <v>FORK, REUSE</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G34" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C34</f>
@@ -8706,7 +8575,7 @@
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K34" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D34</f>
@@ -8715,19 +8584,19 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D35" s="2">
         <v>1.0</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G35" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C35</f>
@@ -8735,25 +8604,25 @@
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K35" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D35</f>
         <v/>
       </c>
       <c r="L35" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G36" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C36</f>
@@ -8761,7 +8630,7 @@
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K36" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D36</f>
@@ -8770,19 +8639,19 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2">
         <v>1.0</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C37</f>
@@ -8790,37 +8659,37 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K37" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D37</f>
         <v>FORK</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D38" s="2">
         <v>1.0</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G38" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!C38</f>
@@ -8828,31 +8697,31 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D38</f>
         <v>REUSE, NO-STD</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G39" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C39</f>
@@ -8860,7 +8729,7 @@
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K39" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D39</f>
@@ -8869,10 +8738,10 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2">
         <v>1.0</v>
@@ -8881,10 +8750,10 @@
         <v>1.0</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G40" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C40</f>
@@ -8892,10 +8761,10 @@
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K40" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D40</f>
@@ -8904,19 +8773,19 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D41" s="2">
         <v>1.0</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C41</f>
@@ -8924,31 +8793,31 @@
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K41" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D41</f>
         <v/>
       </c>
       <c r="L41" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D42" s="2">
         <v>1.0</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C42</f>
@@ -8956,28 +8825,28 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K42" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D42</f>
         <v>REUSE, README</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2">
         <v>1.0</v>
@@ -8986,10 +8855,10 @@
         <v>1.0</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G43" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C43</f>
@@ -8997,34 +8866,34 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D43</f>
         <v/>
       </c>
       <c r="L43" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2">
         <v>1.0</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!C44</f>
@@ -9032,10 +8901,10 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K44" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D44</f>
@@ -9044,19 +8913,19 @@
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D45" s="2">
         <v>1.0</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!C45</f>
@@ -9064,37 +8933,37 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K45" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D45</f>
         <v>FORK, REUSE, VERSION</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D46" s="2">
         <v>1.0</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G46" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C46</f>
@@ -9102,37 +8971,37 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K46" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D46</f>
         <v>REUSE</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D47" s="2">
         <v>1.0</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G47" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C47</f>
@@ -9140,37 +9009,37 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K47" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D47</f>
         <v>README</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D48" s="2">
         <v>1.0</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G48" s="24" t="str">
         <f>'Compare to trad. SW (researcher'!C48</f>
@@ -9178,34 +9047,34 @@
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K48" s="11" t="str">
         <f>'Compare to trad. SW (researcher'!D48</f>
         <v>COMMS</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2">
         <v>1.0</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G49" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C49</f>
@@ -9213,34 +9082,34 @@
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K49" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D49</f>
         <v>REUSE, README</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D50" s="2">
         <v>1.0</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G50" s="24" t="str">
         <f>'Compare to trad. SW (researcher'!C50</f>
@@ -9248,34 +9117,34 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K50" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!D50</f>
         <v>FORK</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D51" s="2">
         <v>1.0</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G51" s="24" t="str">
         <f>'Compare to trad. SW (researcher'!C51</f>
@@ -9283,37 +9152,37 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K51" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D51</f>
         <v>REUSE</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D52" s="2">
         <v>1.0</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G52" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C52</f>
@@ -9321,37 +9190,37 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K52" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D52</f>
         <v>REUSE</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D53" s="2">
         <v>1.0</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G53" s="19" t="str">
         <f>'Compare to trad. SW (researcher'!C53</f>
@@ -9359,10 +9228,10 @@
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D53</f>
@@ -9371,19 +9240,19 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D54" s="2">
         <v>1.0</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!C54</f>
@@ -9391,20 +9260,20 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K54" s="17" t="str">
         <f>'Compare to trad. SW (researcher'!D54</f>
         <v>FORK, NO-STD</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55">
@@ -15092,13 +14961,9 @@
       <c r="I1000" s="12"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="B1"/>
-  </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>